--- a/codigo/2D/ejemplo_Q8/malla_3/malla3.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_3/malla3.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="LaG_mat" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="carga_punt" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="carga_distr" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="kWinkler" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="prop_mat" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -63,7 +64,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -100,7 +101,43 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">X=1, Y=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -159,25 +196,12 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C1" authorId="0">
       <text>
         <r>
@@ -187,7 +211,46 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N</t>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
         </r>
       </text>
     </comment>
@@ -195,10 +258,10 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -245,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -286,10 +349,13 @@
     <t xml:space="preserve">material</t>
   </si>
   <si>
-    <t xml:space="preserve">dirección</t>
+    <t xml:space="preserve">direccion</t>
   </si>
   <si>
     <t xml:space="preserve">desplazamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuerza_puntual</t>
   </si>
   <si>
     <t xml:space="preserve">elemento</t>
@@ -316,7 +382,22 @@
     <t xml:space="preserve">tky</t>
   </si>
   <si>
-    <t xml:space="preserve">fuerza puntual</t>
+    <t xml:space="preserve">kix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kky</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -456,12 +537,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -477,9 +558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -489,7 +570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10084320" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,9 +603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -534,7 +615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10084320" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,9 +653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -584,7 +665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10073520" cy="9523440"/>
+          <a:ext cx="10086120" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -629,7 +710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10073520" cy="9523440"/>
+          <a:ext cx="10086120" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,10 +747,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>725760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -679,7 +760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10086840" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,10 +792,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>725760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -724,97 +805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10086840" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,19 +843,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10086840" cy="9522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,9 +888,99 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10086840" cy="9522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10086840" cy="9522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -909,7 +990,192 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10072440" cy="9523440"/>
+          <a:ext cx="10086840" cy="9522720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10031760" cy="9560160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10031760" cy="9560160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10031760" cy="9560160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10031760" cy="9560160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,21 +1203,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C959"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11506,7 +11770,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11517,24 +11781,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="9.51020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1022" min="10" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.51020408163265"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20212,7 +20473,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20221,24 +20482,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20582,7 +20841,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20593,311 +20852,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20908,36 +20892,308 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20948,36 +21204,345 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21000,7 +21565,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/codigo/2D/ejemplo_Q8/malla_3/malla3.xlsx
+++ b/codigo/2D/ejemplo_Q8/malla_3/malla3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,18 @@
     <sheet name="carga_distr" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="kWinkler" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="prop_mat" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="varios" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="espesor" vbProcedure="false">varios!$B$5</definedName>
+    <definedName function="false" hidden="false" name="g" vbProcedure="false">varios!$B$4</definedName>
+    <definedName function="false" hidden="false" name="Poisson" vbProcedure="false">varios!$B$2</definedName>
+    <definedName function="false" hidden="false" name="rho" vbProcedure="false">varios!$B$3</definedName>
+    <definedName function="false" hidden="false" name="U_ESFUERZO" vbProcedure="false">varios!$B$8</definedName>
+    <definedName function="false" hidden="false" name="U_FUERZA" vbProcedure="false">varios!$B$7</definedName>
+    <definedName function="false" hidden="false" name="U_LONG" vbProcedure="false">varios!$B$6</definedName>
+    <definedName function="false" hidden="false" name="Young" vbProcedure="false">varios!$B$1</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -308,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -410,6 +421,54 @@
   </si>
   <si>
     <t xml:space="preserve">espesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">módulo de Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeficiente de Poisson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de fuerza en N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m³</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de longitud en m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/s²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aceleracion de la gravedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_FUERZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_ESFUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC_UV</t>
   </si>
 </sst>
 </file>
@@ -558,9 +617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -570,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10084320" cy="9522720"/>
+          <a:ext cx="10114920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,9 +662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -615,7 +674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10084320" cy="9522720"/>
+          <a:ext cx="10114920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,9 +712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,7 +724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086120" cy="9522720"/>
+          <a:ext cx="10117080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,9 +757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,7 +769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086120" cy="9522720"/>
+          <a:ext cx="10117080" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,9 +807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>725760</xdr:colOff>
+      <xdr:colOff>724680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -760,7 +819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10117440" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,9 +852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>725760</xdr:colOff>
+      <xdr:colOff>724680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -805,7 +864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10117440" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,9 +902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -855,7 +914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10123920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,9 +947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -900,7 +959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10123920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,9 +992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -945,7 +1004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10123920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,9 +1037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -990,7 +1049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10086840" cy="9522720"/>
+          <a:ext cx="10123920" cy="9521640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1040,7 +1099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10031760" cy="9560160"/>
+          <a:ext cx="10076400" cy="9559080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1085,7 +1144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10031760" cy="9560160"/>
+          <a:ext cx="10076400" cy="9559080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,9 +1177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,7 +1189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10031760" cy="9560160"/>
+          <a:ext cx="10076400" cy="9559080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1175,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10031760" cy="9560160"/>
+          <a:ext cx="10076400" cy="9559080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,9 +1272,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11791,7 +11850,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.79"/>
@@ -20492,7 +20551,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
   </cols>
@@ -20858,11 +20917,11 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
   </cols>
@@ -20902,7 +20961,7 @@
       <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -21214,7 +21273,7 @@
       <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -21526,7 +21585,7 @@
       <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -21572,4 +21631,131 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">7850</f>
+        <v>7850</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>